--- a/biology/Botanique/Neoboletus_xanthopus/Neoboletus_xanthopus.xlsx
+++ b/biology/Botanique/Neoboletus_xanthopus/Neoboletus_xanthopus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet à pied jaune
-Neoboletus xanthopus, le Bolet à pied jaune, est une espèce de champignons (Fungi) basidiomycètes du genre Neoboletus dans la famille des Boletaceae. Décrite en 2014, cette espèce est plutôt rare, il s'agit de l'espèce sœur du Bolet à pied rouge (Neoboletus erythropus)[1]. Elle est caractérisée par ses couleurs généralement plus pâles que celles de N.erythropus.
+Neoboletus xanthopus, le Bolet à pied jaune, est une espèce de champignons (Fungi) basidiomycètes du genre Neoboletus dans la famille des Boletaceae. Décrite en 2014, cette espèce est plutôt rare, il s'agit de l'espèce sœur du Bolet à pied rouge (Neoboletus erythropus). Elle est caractérisée par ses couleurs généralement plus pâles que celles de N.erythropus.
 </t>
         </is>
       </c>
@@ -512,15 +524,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Neoboletus xanthopus (Klofac &amp; A.Urb.) Klofac &amp; A.Urb.[2]. L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus xanthopus Klofac &amp; A.Urb.[2]
-Synonymes
-Neoboletus xanthopus a pour synonymes[2] :
-Boletus erythropus var. discoloroides Lannoy &amp; Estades
-Boletus erythropus subsp. discolor (Quél.) Dermek, Kuthan &amp; Singer[3]
-Boletus xanthopus Klofac &amp; A.Urb.
-Sutorius xanthopus</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Neoboletus xanthopus (Klofac &amp; A.Urb.) Klofac &amp; A.Urb.. L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus xanthopus Klofac &amp; A.Urb.
+</t>
         </is>
       </c>
     </row>
@@ -545,13 +554,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Étymologie</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Du Grec "xantho" = jaune et "pus" = pied, l'épithète xanthopus fait référence au pied jaunâtre de l'espèce. Faisant également écho à son espèce sœur, le Bolet à pied rouge (Neoboletus erythropus)[4].
-</t>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Neoboletus xanthopus a pour synonymes :
+Boletus erythropus var. discoloroides Lannoy &amp; Estades
+Boletus erythropus subsp. discolor (Quél.) Dermek, Kuthan &amp; Singer
+Boletus xanthopus Klofac &amp; A.Urb.
+Sutorius xanthopus</t>
         </is>
       </c>
     </row>
@@ -576,25 +594,129 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du Grec "xantho" = jaune et "pus" = pied, l'épithète xanthopus fait référence au pied jaunâtre de l'espèce. Faisant également écho à son espèce sœur, le Bolet à pied rouge (Neoboletus erythropus).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Neoboletus_xanthopus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neoboletus_xanthopus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les bolets sont des champignons pour la plupart mycorhiziens dont l'hyménophore à tubes, terminé par des pores, se sépare facilement de la chair du chapeau, avec un pied central assez épais et une chair compacte. Ils ont un chapeau rond devenant convexe à mesure qu’ils vieillissent. Les caractéristiques macroscopiques et microscopiques de Neoboletus xanthopus, le Bolet à pied jaune, sont les suivantes :
 De coloration très changeante et variable, généralement plus pâle jaunâtre que le Bolet à pied rouge et au pied moins obèse, ce bolet possède un chapeau de 12 à 17 cm de diamètre, de forme hémisphérique puis convexe, finement velouté au début puis souvent lisse, variablement brun avec des zones ou des marbrures ocres à jaunâtres. Son chapeau pouvant aller du brun clair au marron noirâtre, en passant par le jaune ochracé, jaune pâle, brun jaunâtre ou brun grisâtre, à l'aspect souvent décoloré par endroits.
 Sa face poroïde, pouvant être entièrement rouge à entièrement jaune, est orangée à rouge au début, se décolore ensuite de jaune, notamment vers le bord du chapeau où les pores, de 0,1 à 0,5 mm de largeur, se décolorent typiquement entièrement en jaune vers cette zone. Ses tubes, de 5 à 16 mm de longueur, sont de couleur jaune.
 Son pied, mesurant 7 à 12 cm x 1,5 à 3,5 cm, est habituellement égal et élancé, fusiforme, souvent plus long que le diamètre du chapeau, de couleur jaunâtre, orangé ou crème et parfois avec des zones rougeâtres. Sa surface est sublisse à finement et indistinctement ponctuée, non réticulée, à ponctuations concolores au fond au début, mais devenant ochracées à brunes avec l'âge, généralement assez dures à identifier.
-Ses pores et sa chair bleuissent modérément à intensément immédiatement à la coupe ou bien à la pression. Son bleuissement est faible sur les surfaces du chapeau et du pied, allant de bleu à bleu grisâtre, Sa chair ferme est d'une odeur indistincte, elle possède une saveur douce[5],[1].
-Réactions chimiques
-Certaines parties de Neoboletus xanthopus vont prendre une couleur particulière après contact avec les réactifs suivants :
+Ses pores et sa chair bleuissent modérément à intensément immédiatement à la coupe ou bien à la pression. Son bleuissement est faible sur les surfaces du chapeau et du pied, allant de bleu à bleu grisâtre, Sa chair ferme est d'une odeur indistincte, elle possède une saveur douce,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Neoboletus_xanthopus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neoboletus_xanthopus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Réactions chimiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Certaines parties de Neoboletus xanthopus vont prendre une couleur particulière après contact avec les réactifs suivants :
 Noire à noirâtre au KOH et NH4OH sur le chapeau.
 Négative au NH4OH, Formol et Melzer sur la chair.
 Olivacé su FeSO4 sur le chapeau.
-Rougeâtre vineux au Phénol sur le chapeau[5],[1].
-Caractéristiques microscopiques
-Au microscope, ses basides sont courtes, clavées, à 4 courts stérigmates, courtes, (25)30–37 x 8–10 μm. Ses spores sont ellipsoïdes, lisses, guttulées, brunâtre pâle, (10)13,5–15(16) x (3,8)4–5(5,5) μm, 10–14 x 4,5–6,2 μm en moyenne, Q = 2,8–3.3 (3.5), Q moyen = 3,1. Ces cystides hyméniales sont peu fréquentes, dispersées, atténuées, à contenu jaunâtre dans le KOH, 38–45 x 10–12 μm. Ses caulobasides sont présentes, à contenu typiquement brunâtre tandis que ses caulocystides sont souvent distinctement étranglées, hyalines à brunâtre pâle, 42–70 x 11–12 μm. Sa trame tubulaire est de type Boletus, formé d'hyphes non bouclées, inactives dans le Melzer. Sa stipititrame est formée d'hyphes inactives dans le Melzer sur les hyphes de la base du pied et son pileipellis est en trichoderme avec forte tendance vers un tomentocutis formé d'hyphes apprimées, mais peu dressées au tout début, irrégulièrement emmêlées, subcylindriques, parfois clavées à irrégulièrement déformées, non atténuées ni renflées, légèrement étranglées[5].
+Rougeâtre vineux au Phénol sur le chapeau,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Neoboletus_xanthopus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Neoboletus_xanthopus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au microscope, ses basides sont courtes, clavées, à 4 courts stérigmates, courtes, (25)30–37 x 8–10 μm. Ses spores sont ellipsoïdes, lisses, guttulées, brunâtre pâle, (10)13,5–15(16) x (3,8)4–5(5,5) μm, 10–14 x 4,5–6,2 μm en moyenne, Q = 2,8–3.3 (3.5), Q moyen = 3,1. Ces cystides hyméniales sont peu fréquentes, dispersées, atténuées, à contenu jaunâtre dans le KOH, 38–45 x 10–12 μm. Ses caulobasides sont présentes, à contenu typiquement brunâtre tandis que ses caulocystides sont souvent distinctement étranglées, hyalines à brunâtre pâle, 42–70 x 11–12 μm. Sa trame tubulaire est de type Boletus, formé d'hyphes non bouclées, inactives dans le Melzer. Sa stipititrame est formée d'hyphes inactives dans le Melzer sur les hyphes de la base du pied et son pileipellis est en trichoderme avec forte tendance vers un tomentocutis formé d'hyphes apprimées, mais peu dressées au tout début, irrégulièrement emmêlées, subcylindriques, parfois clavées à irrégulièrement déformées, non atténuées ni renflées, légèrement étranglées.
 </t>
         </is>
       </c>
